--- a/GP2D120.xlsx
+++ b/GP2D120.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Desktop\GP2Y\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\GP2D-GP2Y-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3B2EB-3527-461F-A51A-F47BBD35A522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18795" windowHeight="8445"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GP2D120" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -959,10 +968,6 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1359,10 +1364,6 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1392,7 +1393,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1422,7 +1429,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1760,11 +1773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GP2D120.xlsx
+++ b/GP2D120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\GP2D-GP2Y-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3B2EB-3527-461F-A51A-F47BBD35A522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4EDFB-FA15-4827-926B-EBEB29F31064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,6 +599,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>GP2D120 (5V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> sensor supply &amp; 3,3V ADC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -943,8 +963,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="98896896"/>
@@ -960,7 +981,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="98895360"/>
@@ -968,6 +989,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -995,6 +1020,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>reference </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(5V sensor supply &amp; 3,3V ADC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1339,8 +1386,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="98948608"/>
@@ -1356,7 +1404,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="98947072"/>
@@ -1364,6 +1412,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1381,15 +1433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1777,7 +1829,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
